--- a/PyramidArdR2_4_ticket.xlsx
+++ b/PyramidArdR2_4_ticket.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t xml:space="preserve">cap </t>
   </si>
@@ -43,16 +43,42 @@
   </si>
   <si>
     <t>Remove?</t>
+  </si>
+  <si>
+    <t>MP3</t>
+  </si>
+  <si>
+    <t>mosfet controllato da GPIO</t>
+  </si>
+  <si>
+    <t>IRF510PBF</t>
+  </si>
+  <si>
+    <t>https://arduinodiy.wordpress.com/2012/05/02/using-mosfets-with-ttl-levels/</t>
+  </si>
+  <si>
+    <t>Irl540n</t>
+  </si>
+  <si>
+    <t>supportare squared?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -75,13 +101,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -381,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C13"/>
+  <dimension ref="B2:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -419,25 +448,52 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J17" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/PyramidArdR2_4_ticket.xlsx
+++ b/PyramidArdR2_4_ticket.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t xml:space="preserve">cap </t>
   </si>
@@ -61,6 +61,18 @@
   </si>
   <si>
     <t>supportare squared?</t>
+  </si>
+  <si>
+    <t>PWR</t>
+  </si>
+  <si>
+    <t>2.1 mm pad hole</t>
+  </si>
+  <si>
+    <t>mounting hole</t>
+  </si>
+  <si>
+    <t>supporto di MP3 Flash 16P</t>
   </si>
 </sst>
 </file>
@@ -410,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J17"/>
+  <dimension ref="B2:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -476,7 +488,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>10</v>
       </c>
@@ -488,6 +500,26 @@
       </c>
       <c r="J17" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
